--- a/src/loadFiles/Documents/CI hardware Z.xlsx
+++ b/src/loadFiles/Documents/CI hardware Z.xlsx
@@ -4826,18 +4826,62 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E2F5A0AA74EE634DB800D477754D2CCB" ma:contentTypeVersion="0" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="333a5f22597eab63bb00e79402ce7adc">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a3d6ca9f312fcd1c0ab10337cdbdb729">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E2F5A0AA74EE634DB800D477754D2CCB" ma:contentTypeVersion="6" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="dac29f0e060d0d9828bc78d020c13bcb">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="35a18e0c-895f-4e6d-96a9-0d0cdf6d7134" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b817bc98c5af290a1e56b966b0fd4bba" ns2:_="">
+    <xsd:import namespace="35a18e0c-895f-4e6d-96a9-0d0cdf6d7134"/>
     <xsd:element name="properties">
       <xsd:complexType>
         <xsd:sequence>
           <xsd:element name="documentManagement">
             <xsd:complexType>
-              <xsd:all/>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+              </xsd:all>
             </xsd:complexType>
           </xsd:element>
         </xsd:sequence>
       </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="35a18e0c-895f-4e6d-96a9-0d0cdf6d7134" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="Tags" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="11" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="12" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="13" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
   <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
@@ -4955,13 +4999,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{698E6276-F183-4F57-9E40-2DB07EE4E339}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5DC6BC27-E79B-4A57-9F87-4C0C65D9FDA5}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6484607-2CC5-4485-B1D0-AEF7AF01A93B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AB6E7ACA-E32B-45DD-A6DA-2DD05FE24327}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{530466E0-D5AF-417A-80B1-858268D5A243}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4BA9B703-50A4-4A95-8C85-433A1A596A0A}"/>
 </file>